--- a/01_Conditions/sfe_25/flow_definitions.xlsx
+++ b/01_Conditions/sfe_25/flow_definitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RiverArchitect-tutorial\01_Conditions\sfe_25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC65486-A927-4256-ADA2-F45722F7B9B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978DF2D-0B5E-43CA-B9D2-8039CD9CFA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="1080" windowWidth="24075" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,22 +463,22 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,7 +534,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C195-46D6-9963-EA5A7B44143A}"/>
+              <c16:uniqueId val="{00000000-02B8-416E-A3E9-063CF400D3BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1076,7 +1076,7 @@
   <dimension ref="B1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1233,7 +1233,7 @@
         <v>1.3360000000000001</v>
       </c>
       <c r="C12" s="10">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>22</v>
@@ -1247,7 +1247,7 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="C13" s="10">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>24</v>
@@ -1261,7 +1261,7 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="C14" s="10">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>26</v>
@@ -1275,7 +1275,7 @@
         <v>0.188</v>
       </c>
       <c r="C15" s="10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>28</v>
@@ -1289,7 +1289,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="C16" s="10">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>30</v>
@@ -1303,7 +1303,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="C17" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>32</v>
